--- a/projects/va_emerging_tech/data/scenarios_multiple.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_multiple.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66410AD7-7C01-4143-A692-046A648C222B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB78DE3-B681-4629-9B82-ED20EDA0259E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
   <si>
     <t>Scenario</t>
   </si>
@@ -445,6 +445,9 @@
       </rPr>
       <t xml:space="preserve"> - used in equation above if include_growth_limit = 'Y', units are [MW]</t>
     </r>
+  </si>
+  <si>
+    <t>include_emission_limit</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BDBC8-04C0-4C73-8BBF-CE8A7DD9E8F0}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -966,9 +969,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1050,35 +1055,46 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="14">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <v>1000</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C10" s="14">
         <v>1000</v>
       </c>
     </row>
